--- a/Analog IC Library/Analog IC Library.xlsx
+++ b/Analog IC Library/Analog IC Library.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Current Sensor" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="296">
   <si>
     <t>ID</t>
   </si>
@@ -960,6 +960,12 @@
   </si>
   <si>
     <t>TO-92</t>
+  </si>
+  <si>
+    <t>Op Amp (SOT23-5 Primary_1)</t>
+  </si>
+  <si>
+    <t>Op Amp (SOT23-5 Secondary_1)</t>
   </si>
 </sst>
 </file>
@@ -1390,7 +1396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
@@ -3170,7 +3176,7 @@
         <v>288</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" ref="N40:N41" ca="1" si="10">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\INA281(TI).pdf")</f>
+        <f t="shared" ref="N40" ca="1" si="10">CONCATENATE(LEFT(CELL("имяфайла"), FIND("[",CELL("имяфайла"))-1),"DataSheet\INA281(TI).pdf")</f>
         <v>C:\Altium Libraries\Analog IC Library\DataSheet\INA281(TI).pdf</v>
       </c>
       <c r="O40" t="s">
@@ -3237,8 +3243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3250,8 +3256,8 @@
     <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="64.33203125" style="4" bestFit="1" customWidth="1"/>
@@ -4009,6 +4015,9 @@
         <v>TL072 Low-Noise FET-Input Operational Amplifiers ( TL072, ±5 V to ±15 V, SO-8 Narrow )</v>
       </c>
     </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I17"/>
+    </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>0</v>
@@ -4077,7 +4086,7 @@
         <v>20</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c r="I19" t="s">
         <v>21</v>
@@ -4124,7 +4133,7 @@
         <v>20</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="I20" t="s">
         <v>21</v>
